--- a/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510200</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安上证证券ETF</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5531</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>008555</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>华商龙头优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>75.19</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3253</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005628</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安趋势动力股票A</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005629</t>
+          <t>510200</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安趋势动力股票C</t>
+          <t>汇安上证证券ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>005628</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>汇安趋势动力股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.08</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008555</t>
+          <t>005629</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商龙头优势混合</t>
+          <t>汇安趋势动力股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>81.25</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004951</t>
+          <t>001706</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信价值优利混合</t>
+          <t>诺安积极回报灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -744,15 +834,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.04</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.86</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010352</t>
+          <t>502053</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安沪深300指数增强C</t>
+          <t>长盛中证全指证券公司指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -790,25 +900,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>502053</t>
+          <t>004951</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
+          <t>申万菱信价值优利混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -828,15 +948,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>97.08</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.26</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001706</t>
+          <t>010352</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>诺安积极回报灵活配置混合</t>
+          <t>诺安沪深300指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.55</v>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1295,14 +1338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.12</v>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1311,14 +1376,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.39</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -1327,13 +1498,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.35</v>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.55</v>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6816</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1482,14 +1547,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="5">
@@ -1498,14 +1669,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.39</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -1514,13 +1685,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,281 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001449</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华商双驱优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5531</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008555</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华商龙头优势混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3253</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>75.19</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1305</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005628</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇安趋势动力股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005629</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇安趋势动力股票C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -740,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -791,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001706</t>
+          <t>010695</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安积极回报灵活配置混合</t>
+          <t>华夏磐益一年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>78.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1188</t>
+          <t>0.7619</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -829,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>320014</t>
+          <t>009837</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安沪深300指数增强A</t>
+          <t>华夏磐锐一年定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>85.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1075</t>
+          <t>0.6816</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -867,150 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>502053</t>
+          <t>009838</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
+          <t>华夏磐锐一年定期开放混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>85.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0711</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004951</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>申万菱信价值优利混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0565</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>97.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0391</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010352</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1075,36 +809,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>502053</t>
+          <t>001564</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
+          <t>东方红京东大数据灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>76.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0842</t>
+          <t>0.2376</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1113,36 +847,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>257040</t>
+          <t>011501</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国联安红利混合</t>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.89</t>
+          <t>38.16</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0384</t>
+          <t>0.1103</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1271,7 +1043,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1301,36 +1073,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001564</t>
+          <t>502053</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红京东大数据灵活配置混合</t>
+          <t>长盛中证全指证券公司指数（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.60</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2376</t>
+          <t>0.0842</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1339,74 +1111,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011501</t>
+          <t>257040</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+          <t>国联安红利混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>38.16</t>
+          <t>88.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1103</t>
+          <t>0.0384</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011502</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>38.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1420,7 +1154,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1441,7 +1175,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1471,36 +1205,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010695</t>
+          <t>001706</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏磐益一年定期开放混合</t>
+          <t>诺安积极回报灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.97</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.63</t>
+          <t>93.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7619</t>
+          <t>0.1188</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1509,36 +1243,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009837</t>
+          <t>320014</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏磐锐一年定期开放混合A</t>
+          <t>诺安沪深300指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6816</t>
+          <t>0.1075</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1547,36 +1281,150 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009838</t>
+          <t>502053</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏磐锐一年定期开放混合C</t>
+          <t>长盛中证全指证券公司指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0711</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010352</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1590,128 +1438,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5531</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3253</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.12</v>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.39</v>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.05</v>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.12</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.39</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -649,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.97</t>
+          <t>15.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.63</t>
+          <t>99.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7619</t>
+          <t>0.6694</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -687,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>14.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>94.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6816</t>
+          <t>0.5987</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -725,26 +742,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>94.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0167</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -809,36 +826,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001564</t>
+          <t>010695</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红京东大数据灵活配置混合</t>
+          <t>华夏磐益一年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.60</t>
+          <t>78.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2376</t>
+          <t>0.7619</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -847,36 +864,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011501</t>
+          <t>009837</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+          <t>华夏磐锐一年定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>38.16</t>
+          <t>85.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1103</t>
+          <t>0.6816</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -885,36 +902,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011502</t>
+          <t>009838</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+          <t>华夏磐锐一年定期开放混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38.16</t>
+          <t>85.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -923,6 +940,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1016,7 +1203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1148,7 +1335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1432,7 +1619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600109-国金证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>1.28</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.12</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.39</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.05</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.90</t>
+          <t>16.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.95</t>
+          <t>98.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6694</t>
+          <t>0.7470</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.02</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>75.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5987</t>
+          <t>0.5674</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -732,35 +749,415 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>014874</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>009838</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>华夏磐锐一年定期开放混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>0.39</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.15</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014875</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>惠升惠远回报混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
     </row>
@@ -836,26 +1233,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.97</t>
+          <t>15.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.63</t>
+          <t>99.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7619</t>
+          <t>0.6694</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1271,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>14.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>94.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6816</t>
+          <t>0.5987</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -912,26 +1309,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.69</t>
+          <t>94.15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0187</t>
+          <t>0.0167</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -996,36 +1393,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001564</t>
+          <t>010695</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红京东大数据灵活配置混合</t>
+          <t>华夏磐益一年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.60</t>
+          <t>78.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2376</t>
+          <t>0.7619</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1034,36 +1431,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011501</t>
+          <t>009837</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+          <t>华夏磐锐一年定期开放混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>38.16</t>
+          <t>85.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1103</t>
+          <t>0.6816</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1072,36 +1469,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011502</t>
+          <t>009838</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+          <t>华夏磐锐一年定期开放混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38.16</t>
+          <t>85.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0026</t>
+          <t>0.0187</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1110,6 +1507,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001564</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红京东大数据灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1203,7 +1770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1335,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1619,7 +2186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
